--- a/biology/Zoologie/Gruidae/Gruidae.xlsx
+++ b/biology/Zoologie/Gruidae/Gruidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gruidés (Gruidae) sont une famille de grands oiseaux  de l'ordre des Gruiformes. Cette famille comprend quatre genres et quinze espèces existantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grands oiseaux terrestres (de 90 à 176 centimètres), gracieux, à long cou et longues pattes, au plumage à dominantes grises ou blanches.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve sur tous les continents, excepté l'Antarctique, les îles d'Océanie et l'Amérique du Sud. On observe la plus grande diversité des genres en Afrique et des espèces en Asie. Les gruidés fréquentent les zones humides ou herbeuses étendues.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Balearica Brisson, 1760 (2 espèces)
 Leucogeranus Bonaparte, 1855 (1 espèce)
@@ -606,7 +624,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Sous-famille des Balearicinae :
